--- a/output/fit_clients/fit_round_475.xlsx
+++ b/output/fit_clients/fit_round_475.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1951208542.227089</v>
+        <v>2455397257.141017</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07068319212270309</v>
+        <v>0.1087780065009758</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04488328764281443</v>
+        <v>0.04046023155250948</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>975604260.1870472</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2031644371.690511</v>
+        <v>1849595902.193917</v>
       </c>
       <c r="F3" t="n">
-        <v>0.16729614117565</v>
+        <v>0.1368027779048533</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03925644003432014</v>
+        <v>0.04370715432339056</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1015822230.823009</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4209658370.771423</v>
+        <v>4469608291.766112</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1249740673436606</v>
+        <v>0.1491784134671182</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03316021797570576</v>
+        <v>0.03308451024613454</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>171</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2104829214.430968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2754235163.416077</v>
+        <v>3149456254.500812</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07309897016944768</v>
+        <v>0.0912372491218581</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04666953692060605</v>
+        <v>0.04790163851483719</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>175</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1377117667.871963</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2457955761.194566</v>
+        <v>2342168506.882602</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1236501456611273</v>
+        <v>0.1079277799610844</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04331003445775705</v>
+        <v>0.05292857156695035</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>89</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1228977860.650625</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2681270169.831682</v>
+        <v>1969280549.818527</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0624904407809426</v>
+        <v>0.06620839264760213</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04918014905194287</v>
+        <v>0.03251877528826309</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>149</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1340635080.521029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3616535793.910853</v>
+        <v>3335451021.631886</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1962791276717049</v>
+        <v>0.2042108175283726</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02032168604630626</v>
+        <v>0.02576577327549181</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>152</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1808268017.519738</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2079471314.870848</v>
+        <v>1592620634.122262</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1312065106701839</v>
+        <v>0.1657557478234566</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03611966879359495</v>
+        <v>0.03194388464969935</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1039735673.043837</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5722811253.88124</v>
+        <v>4653516224.534492</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2086922125718295</v>
+        <v>0.1729011507468905</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05151986365302604</v>
+        <v>0.05180368199564004</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>200</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2861405782.223906</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2874049953.061898</v>
+        <v>3191701207.533122</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1569078105272554</v>
+        <v>0.1646223095288728</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04848465561850839</v>
+        <v>0.03255359363447571</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>196</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1437024910.763284</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2786398574.306437</v>
+        <v>3113691823.224458</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1249442552530139</v>
+        <v>0.120845611155609</v>
       </c>
       <c r="G12" t="n">
-        <v>0.048423007043823</v>
+        <v>0.03842782301966515</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>161</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1393199285.637891</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3257001473.008449</v>
+        <v>4007509875.103144</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06684199159367839</v>
+        <v>0.08020141819810574</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02875604594362419</v>
+        <v>0.03027433323764058</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>159</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1628500829.189758</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3200325034.153363</v>
+        <v>3485781570.888937</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1888863522553754</v>
+        <v>0.1480824675829128</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03418621718343509</v>
+        <v>0.0355872213145927</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>152</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1600162537.031786</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1353951113.120457</v>
+        <v>1157587130.2448</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07096016358722466</v>
+        <v>0.1060743171788549</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03844000213938731</v>
+        <v>0.03666527694662581</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>676975608.9626251</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2267408612.509585</v>
+        <v>2376659918.164312</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08021230167514885</v>
+        <v>0.1055509815505625</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04350124280335056</v>
+        <v>0.04590466429587945</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>98</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1133704357.87451</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4867569873.90807</v>
+        <v>4195112180.509077</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1110610808772106</v>
+        <v>0.1399277688658034</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04833303226397188</v>
+        <v>0.03441735183179243</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>141</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2433784928.702608</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3565213454.782239</v>
+        <v>2926209658.068783</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1334069089578691</v>
+        <v>0.1475091059068855</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0227001363076621</v>
+        <v>0.03346002118415795</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>155</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1782606716.750555</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1208009107.517396</v>
+        <v>1133909397.812419</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1294205659550889</v>
+        <v>0.1829995869133524</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02330673379896874</v>
+        <v>0.02223648996447193</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>604004633.6271847</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2666826842.517762</v>
+        <v>2241677330.511193</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1545481607637468</v>
+        <v>0.1430273532536761</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02468746847416405</v>
+        <v>0.0222182073734993</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>67</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1333413376.583712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2074887538.929417</v>
+        <v>1827343265.554112</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08051734025029161</v>
+        <v>0.08801482126045437</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0437342979195181</v>
+        <v>0.03042447390306481</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1037443798.290934</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3604556592.413772</v>
+        <v>2691722059.947125</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09191234844324314</v>
+        <v>0.1150950163760481</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04713197992591974</v>
+        <v>0.05218522598774428</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>131</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1802278321.559392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1041389252.952062</v>
+        <v>1189253843.662678</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1732889159937588</v>
+        <v>0.140900923358541</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03449161485827418</v>
+        <v>0.03697061954674889</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>520694689.6957337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2600736976.333329</v>
+        <v>3168124472.376943</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1139483959634693</v>
+        <v>0.1022088510748731</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03470552524743332</v>
+        <v>0.0271014018127909</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>140</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1300368550.274384</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1469492081.34875</v>
+        <v>1165412884.377098</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07795435322405896</v>
+        <v>0.08186591556868586</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01911629079370839</v>
+        <v>0.01943241702181685</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>734745996.659324</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1322977246.428573</v>
+        <v>1202178527.304874</v>
       </c>
       <c r="F26" t="n">
-        <v>0.11408328107664</v>
+        <v>0.1017953467559176</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03309757682322373</v>
+        <v>0.03173193868496962</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>661488674.3404899</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3342091479.480352</v>
+        <v>3431479718.890587</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1464684267874137</v>
+        <v>0.1244039327450401</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02120616170172781</v>
+        <v>0.02391834323856996</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>120</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1671045782.579905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2563051261.882502</v>
+        <v>2451564269.506407</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1018001419558073</v>
+        <v>0.1487795582461537</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04219868975577849</v>
+        <v>0.04110513017914758</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>155</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1281525604.283802</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4610994476.779154</v>
+        <v>4124353081.503561</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1265397119717795</v>
+        <v>0.1259593843401906</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03229390670714856</v>
+        <v>0.04114875384316283</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>210</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2305497212.90486</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2353142902.986615</v>
+        <v>1639089637.73126</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09472755050954454</v>
+        <v>0.1191191413758875</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02460038700702508</v>
+        <v>0.03909977647140145</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1176571529.195792</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>931357134.1245857</v>
+        <v>1481213369.945513</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06950328313885888</v>
+        <v>0.0984786929092593</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05151415602411112</v>
+        <v>0.04090358200679568</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>465678581.7822714</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1568888017.739174</v>
+        <v>1437249060.266507</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09173711513425212</v>
+        <v>0.1184520754730148</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03482460966275904</v>
+        <v>0.03457963026174813</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>784444091.4920735</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2019694090.378594</v>
+        <v>2692648100.09719</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1670196812826984</v>
+        <v>0.1631968491845859</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05663434436796722</v>
+        <v>0.05889194910037748</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>145</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1009847124.312559</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1194597424.528918</v>
+        <v>1240176190.967663</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09969672846426407</v>
+        <v>0.08022213102906284</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02096025645150663</v>
+        <v>0.02462757489344332</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>597298718.2699682</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1152749421.230246</v>
+        <v>1106307778.486386</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09889931356637809</v>
+        <v>0.09151395962320404</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03214965330324998</v>
+        <v>0.04345591518316223</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>576374695.7169725</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3075345752.706182</v>
+        <v>2637256267.737228</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1737518593037598</v>
+        <v>0.15687555876034</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02159518073272602</v>
+        <v>0.02299307701705313</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>119</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1537672852.262701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2461296667.935359</v>
+        <v>2612590073.87331</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08474693841870289</v>
+        <v>0.07269983228917477</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03886014557520029</v>
+        <v>0.02965236013239943</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>128</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1230648424.758724</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1864897542.132717</v>
+        <v>1938204450.548726</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0931380482641623</v>
+        <v>0.1064704565547659</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03125118177099488</v>
+        <v>0.02412779099707111</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>932448768.7939568</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1371108264.043139</v>
+        <v>1581946371.323169</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1255516429060293</v>
+        <v>0.1568035006953883</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02237721766249717</v>
+        <v>0.02085657982120491</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>685554222.0759362</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1540891661.401284</v>
+        <v>1292259549.388936</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1458659582545158</v>
+        <v>0.1429298338233419</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04410196431368337</v>
+        <v>0.05149956153724832</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>770445786.6799456</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2337277074.586879</v>
+        <v>2613650188.179605</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1296488969040394</v>
+        <v>0.1535278536126852</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0332172399544452</v>
+        <v>0.04210142159355541</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>115</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1168638578.524169</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4074304151.943852</v>
+        <v>4039055330.540092</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08101357374203358</v>
+        <v>0.1045556784781572</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03132151327586525</v>
+        <v>0.03681745108043369</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>156</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2037152110.383037</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2649220743.162048</v>
+        <v>2529325528.486116</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1798318246418048</v>
+        <v>0.1685695115299152</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01671100194524953</v>
+        <v>0.02538513372012858</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>166</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1324610405.263531</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2229901651.175399</v>
+        <v>2057995611.023996</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08439927450917949</v>
+        <v>0.06919639426414703</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02909613659735107</v>
+        <v>0.02576417425206175</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1114950977.813459</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2544222131.737505</v>
+        <v>2497251488.119227</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1577550674361374</v>
+        <v>0.1289792847225369</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04960653721044361</v>
+        <v>0.04287585384846525</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1272111111.591961</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3774010093.016724</v>
+        <v>4376140301.890954</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1621912201776905</v>
+        <v>0.165654894519357</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03757690775751803</v>
+        <v>0.05939751643455961</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>169</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1887005003.117907</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4756128021.9465</v>
+        <v>4333675459.139195</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1716117156130803</v>
+        <v>0.1303407258955548</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05238257989018475</v>
+        <v>0.05627049300556727</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>129</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2378064052.965318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4583145449.250878</v>
+        <v>4216175392.040035</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1088581432075247</v>
+        <v>0.07267377269583904</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03150705506576271</v>
+        <v>0.03321500659625551</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>155</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2291572725.124434</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1537858107.17452</v>
+        <v>1951173673.425685</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1264259931073635</v>
+        <v>0.1337987157769123</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02759828967033997</v>
+        <v>0.04074387377641469</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>768929079.7461925</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3175975428.68194</v>
+        <v>2926002204.489556</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1533710538979175</v>
+        <v>0.1481481891211709</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04520184643823554</v>
+        <v>0.04066399072287462</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>163</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1587987761.658904</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>951131830.2293956</v>
+        <v>1254816962.475801</v>
       </c>
       <c r="F51" t="n">
-        <v>0.148810623707823</v>
+        <v>0.1498871167524479</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04740640392239425</v>
+        <v>0.05347005891581022</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>475566007.0292761</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4927466831.620136</v>
+        <v>4446075902.576707</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09352824759237167</v>
+        <v>0.1066861264902784</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04392058152465707</v>
+        <v>0.04560934772240982</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>195</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2463733417.725225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3792803837.585592</v>
+        <v>2368083024.260547</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1697447554144902</v>
+        <v>0.2020677627602701</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02534631549972257</v>
+        <v>0.02933975773583728</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>137</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1896401896.53575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4058293285.195948</v>
+        <v>3554870763.581654</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1518597802549244</v>
+        <v>0.1622811597493854</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04395332578303138</v>
+        <v>0.03620397536941889</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>155</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2029146711.28126</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4364518165.328477</v>
+        <v>3549602363.642804</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2131692840114579</v>
+        <v>0.2039533528313265</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02946770955092769</v>
+        <v>0.03068479001398205</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2182259073.65826</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1510802357.170706</v>
+        <v>1606009521.513623</v>
       </c>
       <c r="F56" t="n">
-        <v>0.155678260574276</v>
+        <v>0.1597169980049884</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04923497847480314</v>
+        <v>0.05185196721123576</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>755401219.2735045</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3934808252.320516</v>
+        <v>3509132965.166035</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1667213261613913</v>
+        <v>0.1145177588604486</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02007506543828466</v>
+        <v>0.0236414499673323</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>151</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1967404209.075858</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1775249816.272148</v>
+        <v>1824035369.676095</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1913082318616454</v>
+        <v>0.13679042155949</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02643500836678411</v>
+        <v>0.03000707292180641</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>887624914.1897844</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3686443817.047521</v>
+        <v>3936792293.212898</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09436248989112246</v>
+        <v>0.09616127144114854</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03713203124048572</v>
+        <v>0.03889061658935131</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>131</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1843221899.621531</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2476161342.615297</v>
+        <v>3298728321.311487</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1766227665494449</v>
+        <v>0.1558877868562683</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02177044377532847</v>
+        <v>0.02553712364839128</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>147</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1238080686.734354</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2988773623.821196</v>
+        <v>2828688031.174463</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1702858517635748</v>
+        <v>0.1602941018773988</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02079561120549811</v>
+        <v>0.02481686219486287</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>162</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1494386793.457521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1351105647.523834</v>
+        <v>1552745091.600276</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1894296770216158</v>
+        <v>0.1394022593292735</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03284375425468994</v>
+        <v>0.04840785782029927</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>675552784.5046722</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4168341450.610246</v>
+        <v>4006840769.836801</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07991116447719376</v>
+        <v>0.0703473862545644</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04083937358497599</v>
+        <v>0.03640129431768181</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>135</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2084170780.226834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5496438126.945732</v>
+        <v>3874943278.590199</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1816391228281624</v>
+        <v>0.1389440733730149</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03551490477881691</v>
+        <v>0.0308894902303954</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>147</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2748219204.61475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5018112696.949102</v>
+        <v>5008691294.89752</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1616274974402166</v>
+        <v>0.1088059094913167</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02071702189907828</v>
+        <v>0.03043761644035375</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>170</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2509056306.324408</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4546448935.924757</v>
+        <v>4631951192.334698</v>
       </c>
       <c r="F66" t="n">
-        <v>0.13097974009447</v>
+        <v>0.1605227249591384</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04600889666133383</v>
+        <v>0.03816325941262375</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>138</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2273224470.882728</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3512672406.024898</v>
+        <v>3213287571.723623</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07824872829315281</v>
+        <v>0.09977485199481151</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04193922771875368</v>
+        <v>0.04229468454636904</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>152</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1756336177.891301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4963892949.057888</v>
+        <v>3804795007.957822</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1189948256685369</v>
+        <v>0.1494775301052922</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04817688366195686</v>
+        <v>0.03429461372942511</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>151</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2481946528.746809</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1902256288.744064</v>
+        <v>2210003680.21227</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1455108048371488</v>
+        <v>0.1331239572352788</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04820070242649882</v>
+        <v>0.05765865492804041</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
         <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>951128136.6969622</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3178599448.132833</v>
+        <v>2429704761.710561</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09767402957298184</v>
+        <v>0.09533221918728063</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04150175690041</v>
+        <v>0.0390188075900889</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>136</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1589299712.71047</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3861236550.284908</v>
+        <v>5599874913.45892</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1374024364281793</v>
+        <v>0.1475220849021212</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0212377352485305</v>
+        <v>0.03230369366981441</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>173</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1930618295.828738</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1704742895.204072</v>
+        <v>1582106368.229412</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1037339757193775</v>
+        <v>0.09668183855349173</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04658276197639773</v>
+        <v>0.05123206551300999</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>852371441.6035588</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3417674968.539696</v>
+        <v>3371199936.78574</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1068804197000148</v>
+        <v>0.1022907121529976</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03828352913837281</v>
+        <v>0.04785552424335517</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>179</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1708837442.026685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2606821213.899491</v>
+        <v>3539989176.505164</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1600933308912727</v>
+        <v>0.1670209480122606</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03139737185959739</v>
+        <v>0.02433257484680389</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>162</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1303410706.360104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2055335933.411356</v>
+        <v>2122829854.786281</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1041421472501786</v>
+        <v>0.1667184600961953</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02349344680016072</v>
+        <v>0.02518787454062425</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1027667925.693141</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4983013384.945143</v>
+        <v>5111781783.481337</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1002385786735953</v>
+        <v>0.1150193416301633</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02904139003333666</v>
+        <v>0.02810040721229266</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2491506718.404099</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2168555201.253416</v>
+        <v>2102888959.642882</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1389146836765292</v>
+        <v>0.1360660811401194</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02358800118290571</v>
+        <v>0.01977636864264794</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1084277687.043569</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3313483891.481956</v>
+        <v>3141091461.028471</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09204500324524037</v>
+        <v>0.1127310903328399</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04116856631752733</v>
+        <v>0.04227571911152506</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>165</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1656741960.607974</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1879749421.525875</v>
+        <v>1423232242.335228</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1165924010368307</v>
+        <v>0.1314404992919367</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03638833559230511</v>
+        <v>0.03919868550726766</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>939874811.4374615</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4336965419.51705</v>
+        <v>4939843302.586592</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08273805674625757</v>
+        <v>0.07461289641064306</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02880139895673091</v>
+        <v>0.03752421571053567</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2168482725.993126</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4768660413.450019</v>
+        <v>4063709492.954853</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1198380678872998</v>
+        <v>0.08694657752316821</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03058674183441076</v>
+        <v>0.02767364178851809</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2384330198.494737</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5408901886.273337</v>
+        <v>3880370726.70501</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1380327861186356</v>
+        <v>0.2111943564751655</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02962316206297118</v>
+        <v>0.02419073335696701</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>165</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2704450904.30185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1638541603.254822</v>
+        <v>1703999691.320925</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1173372059032746</v>
+        <v>0.1425485708546773</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03192263463175567</v>
+        <v>0.02950060276213223</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>819270741.9402337</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2234488005.602936</v>
+        <v>1867999703.466655</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07433700924474169</v>
+        <v>0.1070824349528395</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0492227231832962</v>
+        <v>0.04271814808150106</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1117243973.497727</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3535117644.764718</v>
+        <v>3561256618.607723</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1591795283027609</v>
+        <v>0.139644437247171</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03619923195749278</v>
+        <v>0.04506743079591587</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>178</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1767558941.619776</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2261790594.913566</v>
+        <v>2422232840.188274</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1157743925444982</v>
+        <v>0.1455077838098708</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01873213083874085</v>
+        <v>0.0177466233057025</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>60</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1130895361.512999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1394690318.975994</v>
+        <v>971660109.3857778</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1676524166965744</v>
+        <v>0.1548781980888668</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02672728911314891</v>
+        <v>0.04418341063077168</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>697345264.9946707</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2881980979.060556</v>
+        <v>3569802808.441075</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1437695714180336</v>
+        <v>0.1652584317161531</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03395420268608951</v>
+        <v>0.03490213126980547</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>189</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1440990508.33461</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3388293643.679216</v>
+        <v>2299589393.932105</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1002583399430341</v>
+        <v>0.1193756882291298</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03127123646983341</v>
+        <v>0.03140448431920821</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>161</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1694146831.508413</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1344914952.593905</v>
+        <v>1546853515.904113</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1240602736986355</v>
+        <v>0.1357165046767375</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03656532438037097</v>
+        <v>0.03919035639317273</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>672457426.6992075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1816978229.348882</v>
+        <v>1361438980.057492</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1528478925201726</v>
+        <v>0.14204795132498</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05512047386753861</v>
+        <v>0.03868098145417237</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>908489111.3846558</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2090392064.921631</v>
+        <v>2542434972.434782</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06660861240118343</v>
+        <v>0.07633697776288535</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0300784725629249</v>
+        <v>0.03585270589969367</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>131</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1045195985.536275</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3544193886.699068</v>
+        <v>3074015639.349721</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09590902965784708</v>
+        <v>0.1092289609486987</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04720948067827312</v>
+        <v>0.04460203884533977</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>140</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1772096973.476787</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2112529717.921737</v>
+        <v>2234109572.931823</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1253822626437974</v>
+        <v>0.1580914397039634</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03323732673048362</v>
+        <v>0.03452919843130978</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1056264871.950934</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3266425893.310161</v>
+        <v>1971517321.986803</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1101271149291238</v>
+        <v>0.08640560690900793</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0451946017028891</v>
+        <v>0.04329113683774712</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>118</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1633212927.022694</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1707984712.133248</v>
+        <v>1710398123.364153</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09118531669969678</v>
+        <v>0.1211073024219018</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04485551801723585</v>
+        <v>0.0411158073433257</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>853992374.2414461</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3855798639.229936</v>
+        <v>4809791437.618572</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1159100003126888</v>
+        <v>0.159741151159631</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02740212171825825</v>
+        <v>0.02509894949227024</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>152</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1927899364.429715</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2503236426.146357</v>
+        <v>2939563004.248911</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1209553475199346</v>
+        <v>0.1017387315297624</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03020285036199375</v>
+        <v>0.03248571639477107</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>127</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1251618164.094747</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2538288134.695704</v>
+        <v>2653811284.102653</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1432025322812055</v>
+        <v>0.09700551208597383</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03182477780050851</v>
+        <v>0.0233822166086665</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>149</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1269144019.920292</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2983861379.488138</v>
+        <v>3778102913.13778</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1123654284206922</v>
+        <v>0.1331302575101098</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02772757011290771</v>
+        <v>0.01978591449708961</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>145</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1491930679.326926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2828448988.635177</v>
+        <v>2642846451.156984</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2098074194670399</v>
+        <v>0.2077155241248515</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04099064297394961</v>
+        <v>0.05300562589234548</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>194</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1414224560.768394</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_475.xlsx
+++ b/output/fit_clients/fit_round_475.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2455397257.141017</v>
+        <v>2437410269.779357</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1087780065009758</v>
+        <v>0.08972128410479469</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04046023155250948</v>
+        <v>0.03953006248708674</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1849595902.193917</v>
+        <v>2382248811.269958</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1368027779048533</v>
+        <v>0.1807153807438274</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04370715432339056</v>
+        <v>0.03458038322981288</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4469608291.766112</v>
+        <v>4381864686.052783</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1491784134671182</v>
+        <v>0.1178782338328982</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03308451024613454</v>
+        <v>0.03572821717124446</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3149456254.500812</v>
+        <v>3598685548.71286</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0912372491218581</v>
+        <v>0.0956808401877399</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04790163851483719</v>
+        <v>0.0386777474458904</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2342168506.882602</v>
+        <v>2645875909.400489</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1079277799610844</v>
+        <v>0.1135531764780363</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05292857156695035</v>
+        <v>0.0493697601267047</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1969280549.818527</v>
+        <v>1999986562.690249</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06620839264760213</v>
+        <v>0.06676570576074269</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03251877528826309</v>
+        <v>0.03023280187546623</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3335451021.631886</v>
+        <v>2642810375.674717</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2042108175283726</v>
+        <v>0.1423991002012963</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02576577327549181</v>
+        <v>0.02590287786185352</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,16 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1592620634.122262</v>
+        <v>2293604367.509008</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1657557478234566</v>
+        <v>0.1480470824393778</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03194388464969935</v>
+        <v>0.03599156246427442</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4653516224.534492</v>
+        <v>5852160669.126334</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1729011507468905</v>
+        <v>0.1529930917511685</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05180368199564004</v>
+        <v>0.05382928196360316</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3191701207.533122</v>
+        <v>2911050552.093182</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1646223095288728</v>
+        <v>0.144002423319525</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03255359363447571</v>
+        <v>0.03230194296364073</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3113691823.224458</v>
+        <v>2817356695.721835</v>
       </c>
       <c r="F12" t="n">
-        <v>0.120845611155609</v>
+        <v>0.1657482916741347</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03842782301966515</v>
+        <v>0.03625099109401021</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4007509875.103144</v>
+        <v>3861092235.012101</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08020141819810574</v>
+        <v>0.08863706302922257</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03027433323764058</v>
+        <v>0.02748641973309687</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3485781570.888937</v>
+        <v>3654650505.862527</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1480824675829128</v>
+        <v>0.1866467591750054</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0355872213145927</v>
+        <v>0.03790139222582338</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1157587130.2448</v>
+        <v>1159822183.340154</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1060743171788549</v>
+        <v>0.08174993612053091</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03666527694662581</v>
+        <v>0.03161066446313657</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2376659918.164312</v>
+        <v>2832808024.950472</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1055509815505625</v>
+        <v>0.0892983220874089</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04590466429587945</v>
+        <v>0.04164836675739012</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4195112180.509077</v>
+        <v>3969857667.9079</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1399277688658034</v>
+        <v>0.1283317526480203</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03441735183179243</v>
+        <v>0.04462975992618991</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2926209658.068783</v>
+        <v>2996144302.782607</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1475091059068855</v>
+        <v>0.1289617737481417</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03346002118415795</v>
+        <v>0.02397821479315307</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1133909397.812419</v>
+        <v>1139206578.390397</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1829995869133524</v>
+        <v>0.1857555277422537</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02223648996447193</v>
+        <v>0.02337520042073758</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2241677330.511193</v>
+        <v>2809799509.79844</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1430273532536761</v>
+        <v>0.146617476734923</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0222182073734993</v>
+        <v>0.02586001154984959</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1827343265.554112</v>
+        <v>2606391667.528624</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08801482126045437</v>
+        <v>0.06166660086460807</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03042447390306481</v>
+        <v>0.02947046320779381</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2691722059.947125</v>
+        <v>3298761924.962389</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1150950163760481</v>
+        <v>0.12126473834797</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05218522598774428</v>
+        <v>0.04627157247998008</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1189253843.662678</v>
+        <v>1543975680.237453</v>
       </c>
       <c r="F23" t="n">
-        <v>0.140900923358541</v>
+        <v>0.1136921954672944</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03697061954674889</v>
+        <v>0.04280415460373325</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3168124472.376943</v>
+        <v>3379519951.26961</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1022088510748731</v>
+        <v>0.1442558002485848</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0271014018127909</v>
+        <v>0.03475741739173496</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1165412884.377098</v>
+        <v>1066564589.165569</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08186591556868586</v>
+        <v>0.07942079366205393</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01943241702181685</v>
+        <v>0.03092662870022534</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1202178527.304874</v>
+        <v>1014178317.876442</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1017953467559176</v>
+        <v>0.0760734059368639</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03173193868496962</v>
+        <v>0.03918041335829951</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3431479718.890587</v>
+        <v>4306761616.180769</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1244039327450401</v>
+        <v>0.1211958439352594</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02391834323856996</v>
+        <v>0.01871669811253204</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2451564269.506407</v>
+        <v>2970225328.281617</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1487795582461537</v>
+        <v>0.09734541112757138</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04110513017914758</v>
+        <v>0.04328034284882441</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4124353081.503561</v>
+        <v>4275119224.999888</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1259593843401906</v>
+        <v>0.09123945583581873</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04114875384316283</v>
+        <v>0.04494547326432</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1639089637.73126</v>
+        <v>1609143536.308702</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1191191413758875</v>
+        <v>0.1053333172259803</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03909977647140145</v>
+        <v>0.03765387013939261</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1481213369.945513</v>
+        <v>1342223130.785938</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0984786929092593</v>
+        <v>0.1119860868574862</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04090358200679568</v>
+        <v>0.05040465157515851</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1437249060.266507</v>
+        <v>1284971521.614015</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1184520754730148</v>
+        <v>0.0950495703276234</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03457963026174813</v>
+        <v>0.03777813135467297</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2692648100.09719</v>
+        <v>2951717270.892934</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1631968491845859</v>
+        <v>0.1778982135683169</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05889194910037748</v>
+        <v>0.0567011324335824</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1240176190.967663</v>
+        <v>1030020452.188688</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08022213102906284</v>
+        <v>0.09091649052755317</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02462757489344332</v>
+        <v>0.02154544317401328</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1106307778.486386</v>
+        <v>1137737881.792992</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09151395962320404</v>
+        <v>0.09301139621481606</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04345591518316223</v>
+        <v>0.04080932938018818</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2637256267.737228</v>
+        <v>2796676852.150906</v>
       </c>
       <c r="F36" t="n">
-        <v>0.15687555876034</v>
+        <v>0.1587622048332686</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02299307701705313</v>
+        <v>0.02053724272087716</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2612590073.87331</v>
+        <v>2699413603.866977</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07269983228917477</v>
+        <v>0.1057694241276883</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02965236013239943</v>
+        <v>0.0338642104918311</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1938204450.548726</v>
+        <v>1604721428.200955</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1064704565547659</v>
+        <v>0.0943312295817257</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02412779099707111</v>
+        <v>0.03797513583434801</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1581946371.323169</v>
+        <v>1904447688.240908</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1568035006953883</v>
+        <v>0.1326723511236316</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02085657982120491</v>
+        <v>0.02628693765634978</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1292259549.388936</v>
+        <v>1158183804.247043</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1429298338233419</v>
+        <v>0.1569090528264418</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05149956153724832</v>
+        <v>0.05460343102357675</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2613650188.179605</v>
+        <v>2043447578.581646</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1535278536126852</v>
+        <v>0.1581377596235001</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04210142159355541</v>
+        <v>0.04113743845816623</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4039055330.540092</v>
+        <v>3196438141.391424</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1045556784781572</v>
+        <v>0.1064709189096292</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03681745108043369</v>
+        <v>0.02986836855218575</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,16 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2529325528.486116</v>
+        <v>2288581796.772381</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1685695115299152</v>
+        <v>0.1466830171010546</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02538513372012858</v>
+        <v>0.02184793677127989</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2057995611.023996</v>
+        <v>2055664039.72934</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06919639426414703</v>
+        <v>0.08932969714535167</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02576417425206175</v>
+        <v>0.0320032275239344</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2497251488.119227</v>
+        <v>2317521832.091001</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1289792847225369</v>
+        <v>0.1546921706783292</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04287585384846525</v>
+        <v>0.04791595377135035</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4376140301.890954</v>
+        <v>4884106205.63723</v>
       </c>
       <c r="F46" t="n">
-        <v>0.165654894519357</v>
+        <v>0.1559979157279171</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05939751643455961</v>
+        <v>0.05578144408707424</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4333675459.139195</v>
+        <v>3593959329.240364</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1303407258955548</v>
+        <v>0.1460826736342409</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05627049300556727</v>
+        <v>0.05597805903655953</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4216175392.040035</v>
+        <v>2875890161.877635</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07267377269583904</v>
+        <v>0.09093888762888412</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03321500659625551</v>
+        <v>0.03384785725406474</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1951173673.425685</v>
+        <v>1726029945.016751</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1337987157769123</v>
+        <v>0.19640078964726</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04074387377641469</v>
+        <v>0.04166253427439054</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2926002204.489556</v>
+        <v>2791137297.867487</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1481481891211709</v>
+        <v>0.1424402975786156</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04066399072287462</v>
+        <v>0.04783991234236171</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1254816962.475801</v>
+        <v>1167720289.627539</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1498871167524479</v>
+        <v>0.1680532678212947</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05347005891581022</v>
+        <v>0.03822443777408599</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4446075902.576707</v>
+        <v>4382094971.669692</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1066861264902784</v>
+        <v>0.1156090493625527</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04560934772240982</v>
+        <v>0.05530574658908753</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2368083024.260547</v>
+        <v>3478897140.013036</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2020677627602701</v>
+        <v>0.1592965542004913</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02933975773583728</v>
+        <v>0.02247651454611705</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3554870763.581654</v>
+        <v>4417399463.365981</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1622811597493854</v>
+        <v>0.151938612236192</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03620397536941889</v>
+        <v>0.042558639998768</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3549602363.642804</v>
+        <v>3158185197.636586</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2039533528313265</v>
+        <v>0.1590261772355065</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03068479001398205</v>
+        <v>0.0227348946855401</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1606009521.513623</v>
+        <v>1373719173.451827</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1597169980049884</v>
+        <v>0.1632379775840639</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05185196721123576</v>
+        <v>0.04322399927048767</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3509132965.166035</v>
+        <v>4250952567.626493</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1145177588604486</v>
+        <v>0.1248685687974834</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0236414499673323</v>
+        <v>0.02089355692224188</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1824035369.676095</v>
+        <v>1866539944.780368</v>
       </c>
       <c r="F58" t="n">
-        <v>0.13679042155949</v>
+        <v>0.1375182601487887</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03000707292180641</v>
+        <v>0.02663718404131021</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3936792293.212898</v>
+        <v>3260532064.670925</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09616127144114854</v>
+        <v>0.08064003597750612</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03889061658935131</v>
+        <v>0.03388955484701789</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3298728321.311487</v>
+        <v>3247171502.356586</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1558877868562683</v>
+        <v>0.1695150757989848</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02553712364839128</v>
+        <v>0.02820948999648063</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2828688031.174463</v>
+        <v>2838536541.786863</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1602941018773988</v>
+        <v>0.119090453733074</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02481686219486287</v>
+        <v>0.03066115025099559</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1552745091.600276</v>
+        <v>1548337982.382878</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1394022593292735</v>
+        <v>0.1509565413212427</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04840785782029927</v>
+        <v>0.04562472769159082</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4006840769.836801</v>
+        <v>4197496098.522579</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0703473862545644</v>
+        <v>0.08695523124771259</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03640129431768181</v>
+        <v>0.04394342172687446</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3874943278.590199</v>
+        <v>4827624872.248885</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1389440733730149</v>
+        <v>0.1192499754094871</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0308894902303954</v>
+        <v>0.02902163038884875</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5008691294.89752</v>
+        <v>3722932133.182917</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1088059094913167</v>
+        <v>0.149837942133009</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03043761644035375</v>
+        <v>0.01951463497453067</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4631951192.334698</v>
+        <v>4250129106.818257</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1605227249591384</v>
+        <v>0.1183267824836288</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03816325941262375</v>
+        <v>0.03694243699629535</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3213287571.723623</v>
+        <v>3043687547.73101</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09977485199481151</v>
+        <v>0.06338762377575155</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04229468454636904</v>
+        <v>0.05007734023786773</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3804795007.957822</v>
+        <v>3703710611.026304</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1494775301052922</v>
+        <v>0.09782664171102712</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03429461372942511</v>
+        <v>0.0490449873717413</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2210003680.21227</v>
+        <v>2184486524.383891</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1331239572352788</v>
+        <v>0.1287176286929952</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05765865492804041</v>
+        <v>0.05624050410411429</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2429704761.710561</v>
+        <v>2503440618.936945</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09533221918728063</v>
+        <v>0.06265829276895803</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0390188075900889</v>
+        <v>0.03222123495068942</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5599874913.45892</v>
+        <v>3814132050.395601</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1475220849021212</v>
+        <v>0.1767173730287202</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03230369366981441</v>
+        <v>0.03311211338242654</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,16 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1582106368.229412</v>
+        <v>1806595930.251596</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09668183855349173</v>
+        <v>0.1040392044297452</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05123206551300999</v>
+        <v>0.04021654805784025</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3371199936.78574</v>
+        <v>3059414178.311131</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1022907121529976</v>
+        <v>0.09468426506188249</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04785552424335517</v>
+        <v>0.05202020352617669</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3539989176.505164</v>
+        <v>3841607930.403802</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1670209480122606</v>
+        <v>0.1128430341114275</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02433257484680389</v>
+        <v>0.03436992910489776</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2122829854.786281</v>
+        <v>2386267649.654899</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1667184600961953</v>
+        <v>0.1254211817844454</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02518787454062425</v>
+        <v>0.03059299509887311</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5111781783.481337</v>
+        <v>4855723482.011012</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1150193416301633</v>
+        <v>0.116637575175721</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02810040721229266</v>
+        <v>0.02210116077771503</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2102888959.642882</v>
+        <v>2110702266.330551</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1360660811401194</v>
+        <v>0.1801100927431647</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01977636864264794</v>
+        <v>0.0241369549495359</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3141091461.028471</v>
+        <v>4090820979.27349</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1127310903328399</v>
+        <v>0.1101953248880225</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04227571911152506</v>
+        <v>0.04145945648522154</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1423232242.335228</v>
+        <v>1223587748.720985</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1314404992919367</v>
+        <v>0.1418397017516587</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03919868550726766</v>
+        <v>0.02840835989812192</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4939843302.586592</v>
+        <v>3500897973.907055</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07461289641064306</v>
+        <v>0.07084155779382696</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03752421571053567</v>
+        <v>0.02422191243844148</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4063709492.954853</v>
+        <v>5168666521.953878</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08694657752316821</v>
+        <v>0.1354348233509021</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02767364178851809</v>
+        <v>0.01990715536088481</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3880370726.70501</v>
+        <v>4385288553.460089</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2111943564751655</v>
+        <v>0.1669350768810005</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02419073335696701</v>
+        <v>0.01869898386083985</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1703999691.320925</v>
+        <v>2008353500.955581</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1425485708546773</v>
+        <v>0.1361064286430113</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02950060276213223</v>
+        <v>0.02965061756023405</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1867999703.466655</v>
+        <v>2327030321.187128</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1070824349528395</v>
+        <v>0.09566466667698201</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04271814808150106</v>
+        <v>0.05061708336822036</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3561256618.607723</v>
+        <v>2772342836.012211</v>
       </c>
       <c r="F85" t="n">
-        <v>0.139644437247171</v>
+        <v>0.1640411503511539</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04506743079591587</v>
+        <v>0.04318440647077652</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2422232840.188274</v>
+        <v>2601678497.777834</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1455077838098708</v>
+        <v>0.1701809825511276</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0177466233057025</v>
+        <v>0.0225174312302139</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>971660109.3857778</v>
+        <v>988496085.3199321</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1548781980888668</v>
+        <v>0.126878066653313</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04418341063077168</v>
+        <v>0.04145417247739593</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3569802808.441075</v>
+        <v>3412770126.522984</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1652584317161531</v>
+        <v>0.1473251341802028</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03490213126980547</v>
+        <v>0.0269132850482186</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2299589393.932105</v>
+        <v>2943857921.024149</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1193756882291298</v>
+        <v>0.1046512400732449</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03140448431920821</v>
+        <v>0.04107692034173922</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1546853515.904113</v>
+        <v>1644454845.451586</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1357165046767375</v>
+        <v>0.1202925387842301</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03919035639317273</v>
+        <v>0.04990063721028216</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1361438980.057492</v>
+        <v>1735028098.105117</v>
       </c>
       <c r="F91" t="n">
-        <v>0.14204795132498</v>
+        <v>0.1864723780801404</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03868098145417237</v>
+        <v>0.04863688580217301</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2542434972.434782</v>
+        <v>2625928158.392327</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07633697776288535</v>
+        <v>0.08383823719882172</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03585270589969367</v>
+        <v>0.03047566132728675</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3074015639.349721</v>
+        <v>4543669929.765864</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1092289609486987</v>
+        <v>0.1022832170432422</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04460203884533977</v>
+        <v>0.03985993415740774</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2234109572.931823</v>
+        <v>2386448323.179635</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1580914397039634</v>
+        <v>0.1311179362942793</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03452919843130978</v>
+        <v>0.03115716383335961</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>1971517321.986803</v>
+        <v>2921044402.434777</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08640560690900793</v>
+        <v>0.1280674258215741</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04329113683774712</v>
+        <v>0.04137243766354422</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1710398123.364153</v>
+        <v>2251211386.328485</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1211073024219018</v>
+        <v>0.1015076337896792</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0411158073433257</v>
+        <v>0.0357629534947061</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4809791437.618572</v>
+        <v>4769152351.074677</v>
       </c>
       <c r="F97" t="n">
-        <v>0.159741151159631</v>
+        <v>0.1120804271879442</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02509894949227024</v>
+        <v>0.01798080521121829</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2939563004.248911</v>
+        <v>2471358092.851455</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1017387315297624</v>
+        <v>0.08571745045751136</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03248571639477107</v>
+        <v>0.02950688289511136</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2653811284.102653</v>
+        <v>2696901556.558417</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09700551208597383</v>
+        <v>0.1455417940051937</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0233822166086665</v>
+        <v>0.02893005648924483</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3778102913.13778</v>
+        <v>4122506577.094458</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1331302575101098</v>
+        <v>0.1396827651627587</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01978591449708961</v>
+        <v>0.02323085302397284</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2642846451.156984</v>
+        <v>3298887191.226677</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2077155241248515</v>
+        <v>0.2135594896524823</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05300562589234548</v>
+        <v>0.05478184229548282</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_475.xlsx
+++ b/output/fit_clients/fit_round_475.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2437410269.779357</v>
+        <v>2098597250.984365</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08972128410479469</v>
+        <v>0.07480963709160271</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03953006248708674</v>
+        <v>0.04557339620864278</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2382248811.269958</v>
+        <v>1832790281.001213</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1807153807438274</v>
+        <v>0.1303947162598384</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03458038322981288</v>
+        <v>0.0385327118426876</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4381864686.052783</v>
+        <v>4750970156.459148</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1178782338328982</v>
+        <v>0.1193025918693634</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03572821717124446</v>
+        <v>0.03450310986302175</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>240</v>
+      </c>
+      <c r="J4" t="n">
+        <v>474</v>
+      </c>
+      <c r="K4" t="n">
+        <v>30.15256866680254</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3598685548.71286</v>
+        <v>3643610420.466581</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0956808401877399</v>
+        <v>0.0909330916053106</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0386777474458904</v>
+        <v>0.04425671652909199</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>200</v>
+      </c>
+      <c r="J5" t="n">
+        <v>475</v>
+      </c>
+      <c r="K5" t="n">
+        <v>35.18965627577983</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2645875909.400489</v>
+        <v>2085533530.535343</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1135531764780363</v>
+        <v>0.1292395227579619</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0493697601267047</v>
+        <v>0.03952005407530845</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +680,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1999986562.690249</v>
+        <v>2070791937.838297</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06676570576074269</v>
+        <v>0.09479702783626645</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03023280187546623</v>
+        <v>0.04785428102313208</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +715,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2642810375.674717</v>
+        <v>3647831829.154986</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1423991002012963</v>
+        <v>0.2020702962395465</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02590287786185352</v>
+        <v>0.02577283833854014</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>135</v>
+      </c>
+      <c r="J8" t="n">
+        <v>470</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2293604367.509008</v>
+        <v>2055532455.63659</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1480470824393778</v>
+        <v>0.1627219531394369</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03599156246427442</v>
+        <v>0.03503973769333592</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5852160669.126334</v>
+        <v>4401197086.071948</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1529930917511685</v>
+        <v>0.2011531703855709</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05382928196360316</v>
+        <v>0.05227940664563036</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>363</v>
+      </c>
+      <c r="J10" t="n">
+        <v>474</v>
+      </c>
+      <c r="K10" t="n">
+        <v>28.08002406457937</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +822,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2911050552.093182</v>
+        <v>3038714776.270476</v>
       </c>
       <c r="F11" t="n">
-        <v>0.144002423319525</v>
+        <v>0.1438536033474282</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03230194296364073</v>
+        <v>0.03877386406789553</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>197</v>
+      </c>
+      <c r="J11" t="n">
+        <v>474</v>
+      </c>
+      <c r="K11" t="n">
+        <v>23.53702260748797</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2817356695.721835</v>
+        <v>3186368822.883276</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1657482916741347</v>
+        <v>0.1206257303006371</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03625099109401021</v>
+        <v>0.05251343319066018</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +888,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3861092235.012101</v>
+        <v>4746531243.791664</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08863706302922257</v>
+        <v>0.08531385534844588</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02748641973309687</v>
+        <v>0.02828419077703461</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>246</v>
+      </c>
+      <c r="J13" t="n">
+        <v>475</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3654650505.862527</v>
+        <v>3534439603.511854</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1866467591750054</v>
+        <v>0.1754045406053223</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03790139222582338</v>
+        <v>0.03509011554668592</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>108</v>
+      </c>
+      <c r="J14" t="n">
+        <v>470</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1159822183.340154</v>
+        <v>1361875109.361174</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08174993612053091</v>
+        <v>0.103425281790742</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03161066446313657</v>
+        <v>0.03810266459558938</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2832808024.950472</v>
+        <v>2519640155.723025</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0892983220874089</v>
+        <v>0.09559583043274977</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04164836675739012</v>
+        <v>0.05183058834421513</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3969857667.9079</v>
+        <v>4850646396.670287</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1283317526480203</v>
+        <v>0.137674898322567</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04462975992618991</v>
+        <v>0.05085401807274504</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>232</v>
+      </c>
+      <c r="J17" t="n">
+        <v>475</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2996144302.782607</v>
+        <v>3394509995.840832</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1289617737481417</v>
+        <v>0.1640992851422529</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02397821479315307</v>
+        <v>0.02836079618934974</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>127</v>
+      </c>
+      <c r="J18" t="n">
+        <v>470</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1139206578.390397</v>
+        <v>1304378757.740091</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1857555277422537</v>
+        <v>0.1840761808712396</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02337520042073758</v>
+        <v>0.02685502014375282</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2809799509.79844</v>
+        <v>1988743054.765624</v>
       </c>
       <c r="F20" t="n">
-        <v>0.146617476734923</v>
+        <v>0.1035913312547945</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02586001154984959</v>
+        <v>0.02239916711360728</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2606391667.528624</v>
+        <v>1658828487.365743</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06166660086460807</v>
+        <v>0.08259074538722544</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02947046320779381</v>
+        <v>0.04359705236136194</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3298761924.962389</v>
+        <v>3476211780.51762</v>
       </c>
       <c r="F22" t="n">
-        <v>0.12126473834797</v>
+        <v>0.1190222021868798</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04627157247998008</v>
+        <v>0.05524755257882048</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>138</v>
+      </c>
+      <c r="J22" t="n">
+        <v>472</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1543975680.237453</v>
+        <v>939098046.6644065</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1136921954672944</v>
+        <v>0.1310416170570828</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04280415460373325</v>
+        <v>0.05206679463341285</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3379519951.26961</v>
+        <v>3583068719.466388</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1442558002485848</v>
+        <v>0.1093018274645042</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03475741739173496</v>
+        <v>0.03686964219997475</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>151</v>
+      </c>
+      <c r="J24" t="n">
+        <v>472</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1066564589.165569</v>
+        <v>996277033.5725712</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07942079366205393</v>
+        <v>0.1181304694427224</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03092662870022534</v>
+        <v>0.02066028467651619</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1014178317.876442</v>
+        <v>1038544436.251937</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0760734059368639</v>
+        <v>0.08498044713773222</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03918041335829951</v>
+        <v>0.0347792923069482</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4306761616.180769</v>
+        <v>4516616627.818548</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1211958439352594</v>
+        <v>0.1057326378498118</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01871669811253204</v>
+        <v>0.01921114105425338</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>210</v>
+      </c>
+      <c r="J27" t="n">
+        <v>475</v>
+      </c>
+      <c r="K27" t="n">
+        <v>33.44959609811959</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2970225328.281617</v>
+        <v>3456041761.053246</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09734541112757138</v>
+        <v>0.1226718881071453</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04328034284882441</v>
+        <v>0.04266769845688494</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>117</v>
+      </c>
+      <c r="J28" t="n">
+        <v>471</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,17 +1456,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4275119224.999888</v>
+        <v>4430179289.356429</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09123945583581873</v>
+        <v>0.119067085969489</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04494547326432</v>
+        <v>0.0309460289461926</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>378</v>
+      </c>
+      <c r="J29" t="n">
+        <v>475</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1609143536.308702</v>
+        <v>1966480295.817946</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1053333172259803</v>
+        <v>0.094828531726433</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03765387013939261</v>
+        <v>0.03912909432556399</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1342223130.785938</v>
+        <v>971133888.0573797</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1119860868574862</v>
+        <v>0.08880678309121887</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05040465157515851</v>
+        <v>0.04922572200870945</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1284971521.614015</v>
+        <v>1287853521.225059</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0950495703276234</v>
+        <v>0.09944815597395856</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03777813135467297</v>
+        <v>0.03236182390186938</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2951717270.892934</v>
+        <v>2547292460.018628</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1778982135683169</v>
+        <v>0.1310044332418626</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0567011324335824</v>
+        <v>0.05825334146932706</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1030020452.188688</v>
+        <v>1043951816.454733</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09091649052755317</v>
+        <v>0.1172577176476049</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02154544317401328</v>
+        <v>0.02485648174833013</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1137737881.792992</v>
+        <v>880454044.7542635</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09301139621481606</v>
+        <v>0.1124702836080353</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04080932938018818</v>
+        <v>0.03575242834747403</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2796676852.150906</v>
+        <v>2188551566.003428</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1587622048332686</v>
+        <v>0.1747862999417366</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02053724272087716</v>
+        <v>0.01788364995654712</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2699413603.866977</v>
+        <v>1876296691.191516</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1057694241276883</v>
+        <v>0.1081814892966413</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0338642104918311</v>
+        <v>0.03598154833915691</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1604721428.200955</v>
+        <v>1404704958.027223</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0943312295817257</v>
+        <v>0.07794212335815535</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03797513583434801</v>
+        <v>0.03577427805913069</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1904447688.240908</v>
+        <v>1805011497.187987</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1326723511236316</v>
+        <v>0.175562885368113</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02628693765634978</v>
+        <v>0.02791029503508567</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1158183804.247043</v>
+        <v>1661934158.280701</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1569090528264418</v>
+        <v>0.1088622503047077</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05460343102357675</v>
+        <v>0.05400733782320333</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2043447578.581646</v>
+        <v>2433264471.075522</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1581377596235001</v>
+        <v>0.1249939552012383</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04113743845816623</v>
+        <v>0.04715014675455535</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3196438141.391424</v>
+        <v>2737902457.234025</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1064709189096292</v>
+        <v>0.07736702914559551</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02986836855218575</v>
+        <v>0.03371454654790984</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>207</v>
+      </c>
+      <c r="J42" t="n">
+        <v>473</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2288581796.772381</v>
+        <v>2693612968.345126</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1466830171010546</v>
+        <v>0.1253238209505952</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02184793677127989</v>
+        <v>0.02536926790741276</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1981,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2055664039.72934</v>
+        <v>1785385807.234047</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08932969714535167</v>
+        <v>0.08362765195939055</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0320032275239344</v>
+        <v>0.03276096131182991</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2317521832.091001</v>
+        <v>2381734154.54369</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1546921706783292</v>
+        <v>0.1741983460125433</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04791595377135035</v>
+        <v>0.04839553991591667</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2045,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4884106205.63723</v>
+        <v>4861689088.684938</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1559979157279171</v>
+        <v>0.1729274377385119</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05578144408707424</v>
+        <v>0.04726662496491953</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>280</v>
+      </c>
+      <c r="J46" t="n">
+        <v>475</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2080,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3593959329.240364</v>
+        <v>3947644642.274293</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1460826736342409</v>
+        <v>0.1248710924154594</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05597805903655953</v>
+        <v>0.03719982447596824</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>214</v>
+      </c>
+      <c r="J47" t="n">
+        <v>475</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2115,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2875890161.877635</v>
+        <v>3975678017.928181</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09093888762888412</v>
+        <v>0.07392545912306288</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03384785725406474</v>
+        <v>0.03382989516615537</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>237</v>
+      </c>
+      <c r="J48" t="n">
+        <v>475</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2150,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1726029945.016751</v>
+        <v>1752914578.251352</v>
       </c>
       <c r="F49" t="n">
-        <v>0.19640078964726</v>
+        <v>0.1966751507192684</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04166253427439054</v>
+        <v>0.04222000961132598</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2191,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2791137297.867487</v>
+        <v>3270449829.298664</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1424402975786156</v>
+        <v>0.1080861098913608</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04783991234236171</v>
+        <v>0.04960668707318747</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>170</v>
+      </c>
+      <c r="J50" t="n">
+        <v>474</v>
+      </c>
+      <c r="K50" t="n">
+        <v>26.63822580668866</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1167720289.627539</v>
+        <v>1325798861.535824</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1680532678212947</v>
+        <v>0.1448366597548659</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03822443777408599</v>
+        <v>0.05193405057489198</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2257,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4382094971.669692</v>
+        <v>3740740117.361761</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1156090493625527</v>
+        <v>0.08392456305253396</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05530574658908753</v>
+        <v>0.04869475286980308</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>267</v>
+      </c>
+      <c r="J52" t="n">
+        <v>474</v>
+      </c>
+      <c r="K52" t="n">
+        <v>29.81117954541033</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3478897140.013036</v>
+        <v>2809606191.268938</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1592965542004913</v>
+        <v>0.1763689782818734</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02247651454611705</v>
+        <v>0.02672261893807142</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>74</v>
+      </c>
+      <c r="J53" t="n">
+        <v>471</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2335,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4417399463.365981</v>
+        <v>3842540556.324137</v>
       </c>
       <c r="F54" t="n">
-        <v>0.151938612236192</v>
+        <v>0.1487831883459692</v>
       </c>
       <c r="G54" t="n">
-        <v>0.042558639998768</v>
+        <v>0.0475568375268043</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>251</v>
+      </c>
+      <c r="J54" t="n">
+        <v>474</v>
+      </c>
+      <c r="K54" t="n">
+        <v>31.76829042930574</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3158185197.636586</v>
+        <v>4652172965.233314</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1590261772355065</v>
+        <v>0.1935197885177674</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0227348946855401</v>
+        <v>0.02034141335513976</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>235</v>
+      </c>
+      <c r="J55" t="n">
+        <v>474</v>
+      </c>
+      <c r="K55" t="n">
+        <v>30.98044546718894</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1373719173.451827</v>
+        <v>1820081616.581079</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1632379775840639</v>
+        <v>0.1111898444957831</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04322399927048767</v>
+        <v>0.03948129861131163</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4250952567.626493</v>
+        <v>3677326949.969464</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1248685687974834</v>
+        <v>0.1540827161468313</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02089355692224188</v>
+        <v>0.02746437956992565</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>204</v>
+      </c>
+      <c r="J57" t="n">
+        <v>475</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2479,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1866539944.780368</v>
+        <v>1718070663.058727</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1375182601487887</v>
+        <v>0.175277428268257</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02663718404131021</v>
+        <v>0.03772213932284383</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3260532064.670925</v>
+        <v>4993251379.635879</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08064003597750612</v>
+        <v>0.1021379374827844</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03388955484701789</v>
+        <v>0.04073888909401604</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>233</v>
+      </c>
+      <c r="J59" t="n">
+        <v>474</v>
+      </c>
+      <c r="K59" t="n">
+        <v>32.73842619610992</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2545,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3247171502.356586</v>
+        <v>3040397221.215219</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1695150757989848</v>
+        <v>0.191492717079937</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02820948999648063</v>
+        <v>0.02483112213875276</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>94</v>
+      </c>
+      <c r="J60" t="n">
+        <v>475</v>
+      </c>
+      <c r="K60" t="n">
+        <v>35.06934320479202</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2838536541.786863</v>
+        <v>2876713315.31549</v>
       </c>
       <c r="F61" t="n">
-        <v>0.119090453733074</v>
+        <v>0.1427386432043352</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03066115025099559</v>
+        <v>0.03029200800868962</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1548337982.382878</v>
+        <v>1866209885.257763</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1509565413212427</v>
+        <v>0.1468794845658791</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04562472769159082</v>
+        <v>0.04388357185095831</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4197496098.522579</v>
+        <v>4089845405.958353</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08695523124771259</v>
+        <v>0.1042189997826184</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04394342172687446</v>
+        <v>0.04158471918831939</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>237</v>
+      </c>
+      <c r="J63" t="n">
+        <v>474</v>
+      </c>
+      <c r="K63" t="n">
+        <v>31.16342563747439</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4827624872.248885</v>
+        <v>5486205605.696584</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1192499754094871</v>
+        <v>0.1835868389876918</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02902163038884875</v>
+        <v>0.03329139024351743</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>237</v>
+      </c>
+      <c r="J64" t="n">
+        <v>475</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2730,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3722932133.182917</v>
+        <v>5730924992.909196</v>
       </c>
       <c r="F65" t="n">
-        <v>0.149837942133009</v>
+        <v>0.1223787137462234</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01951463497453067</v>
+        <v>0.02055618159154616</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>335</v>
+      </c>
+      <c r="J65" t="n">
+        <v>474</v>
+      </c>
+      <c r="K65" t="n">
+        <v>28.98138577360688</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4250129106.818257</v>
+        <v>3739219387.512757</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1183267824836288</v>
+        <v>0.1199482581641787</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03694243699629535</v>
+        <v>0.03623332570740184</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>234</v>
+      </c>
+      <c r="J66" t="n">
+        <v>475</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3043687547.73101</v>
+        <v>2166821048.172125</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06338762377575155</v>
+        <v>0.09482775263792485</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05007734023786773</v>
+        <v>0.04607961913360258</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3703710611.026304</v>
+        <v>4717968045.194461</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09782664171102712</v>
+        <v>0.1405575926628389</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0490449873717413</v>
+        <v>0.04794407512987042</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>258</v>
+      </c>
+      <c r="J68" t="n">
+        <v>475</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2184486524.383891</v>
+        <v>2078478087.648587</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1287176286929952</v>
+        <v>0.1694419876015459</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05624050410411429</v>
+        <v>0.0385563629030691</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2907,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2503440618.936945</v>
+        <v>2496190728.054935</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06265829276895803</v>
+        <v>0.06556048143824884</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03222123495068942</v>
+        <v>0.03233369950645471</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>71</v>
+      </c>
+      <c r="J70" t="n">
+        <v>468</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2936,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3814132050.395601</v>
+        <v>5015180810.544762</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1767173730287202</v>
+        <v>0.1684984487391412</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03311211338242654</v>
+        <v>0.02282242976981277</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>321</v>
+      </c>
+      <c r="J71" t="n">
+        <v>475</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1806595930.251596</v>
+        <v>1713896949.257513</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1040392044297452</v>
+        <v>0.09939780669846801</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04021654805784025</v>
+        <v>0.03826046681021564</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3012,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3059414178.311131</v>
+        <v>2517053171.402854</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09468426506188249</v>
+        <v>0.1105086324642301</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05202020352617669</v>
+        <v>0.04561269241597947</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>43</v>
+      </c>
+      <c r="J73" t="n">
+        <v>472</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3041,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3841607930.403802</v>
+        <v>3019940722.422995</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1128430341114275</v>
+        <v>0.1620802798830921</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03436992910489776</v>
+        <v>0.03392175519377966</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>142</v>
+      </c>
+      <c r="J74" t="n">
+        <v>474</v>
+      </c>
+      <c r="K74" t="n">
+        <v>23.81535888971773</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2386267649.654899</v>
+        <v>2259588236.029647</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1254211817844454</v>
+        <v>0.1536819121722536</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03059299509887311</v>
+        <v>0.02806852053947217</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3113,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4855723482.011012</v>
+        <v>4140989978.751712</v>
       </c>
       <c r="F76" t="n">
-        <v>0.116637575175721</v>
+        <v>0.09333049277427923</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02210116077771503</v>
+        <v>0.03107895990962681</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>227</v>
+      </c>
+      <c r="J76" t="n">
+        <v>474</v>
+      </c>
+      <c r="K76" t="n">
+        <v>30.66907393337681</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2110702266.330551</v>
+        <v>2135669012.044304</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1801100927431647</v>
+        <v>0.1265897023837045</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0241369549495359</v>
+        <v>0.02626552714745093</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4090820979.27349</v>
+        <v>3892814522.954075</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1101953248880225</v>
+        <v>0.1153966057818368</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04145945648522154</v>
+        <v>0.04309337685908667</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>236</v>
+      </c>
+      <c r="J78" t="n">
+        <v>474</v>
+      </c>
+      <c r="K78" t="n">
+        <v>31.37025699798895</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1223587748.720985</v>
+        <v>1174944013.986096</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1418397017516587</v>
+        <v>0.1585903373203375</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02840835989812192</v>
+        <v>0.02753425468704648</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3500897973.907055</v>
+        <v>3633059588.676854</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07084155779382696</v>
+        <v>0.1005363473684707</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02422191243844148</v>
+        <v>0.03455751745785979</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>232</v>
+      </c>
+      <c r="J80" t="n">
+        <v>474</v>
+      </c>
+      <c r="K80" t="n">
+        <v>25.63552237160039</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5168666521.953878</v>
+        <v>3948125675.717433</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1354348233509021</v>
+        <v>0.1088338856145369</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01990715536088481</v>
+        <v>0.02230992187491618</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>221</v>
+      </c>
+      <c r="J81" t="n">
+        <v>475</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4385288553.460089</v>
+        <v>5603305329.465644</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1669350768810005</v>
+        <v>0.1388729656222617</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01869898386083985</v>
+        <v>0.02252800328042869</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>313</v>
+      </c>
+      <c r="J82" t="n">
+        <v>474</v>
+      </c>
+      <c r="K82" t="n">
+        <v>32.02949511486014</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2008353500.955581</v>
+        <v>2333105612.957233</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1361064286430113</v>
+        <v>0.1075533199483461</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02965061756023405</v>
+        <v>0.02873922279997135</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2327030321.187128</v>
+        <v>2234606812.969718</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09566466667698201</v>
+        <v>0.1079552749367338</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05061708336822036</v>
+        <v>0.04361732497734425</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3436,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2772342836.012211</v>
+        <v>2748249723.649157</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1640411503511539</v>
+        <v>0.1579241409661279</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04318440647077652</v>
+        <v>0.05500240156107593</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>67</v>
+      </c>
+      <c r="J85" t="n">
+        <v>475</v>
+      </c>
+      <c r="K85" t="n">
+        <v>33.21857751032394</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2601678497.777834</v>
+        <v>1974431152.675229</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1701809825511276</v>
+        <v>0.1376117950180581</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0225174312302139</v>
+        <v>0.02109570594461931</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>988496085.3199321</v>
+        <v>1239912918.476741</v>
       </c>
       <c r="F87" t="n">
-        <v>0.126878066653313</v>
+        <v>0.1607554307323676</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04145417247739593</v>
+        <v>0.03308951770593871</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3412770126.522984</v>
+        <v>3694273060.99261</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1473251341802028</v>
+        <v>0.1574018503465817</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0269132850482186</v>
+        <v>0.03228591507116667</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>65</v>
+      </c>
+      <c r="J88" t="n">
+        <v>475</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2943857921.024149</v>
+        <v>3087951243.171896</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1046512400732449</v>
+        <v>0.121220001951838</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04107692034173922</v>
+        <v>0.03057177544764678</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>27</v>
+      </c>
+      <c r="J89" t="n">
+        <v>466</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1644454845.451586</v>
+        <v>1875301427.462568</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1202925387842301</v>
+        <v>0.1029287713227314</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04990063721028216</v>
+        <v>0.04084227444597929</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1735028098.105117</v>
+        <v>2037843172.52688</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1864723780801404</v>
+        <v>0.1771993271016813</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04863688580217301</v>
+        <v>0.03813945945563883</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2625928158.392327</v>
+        <v>2448209653.848315</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08383823719882172</v>
+        <v>0.09550517018351593</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03047566132728675</v>
+        <v>0.0330045005871007</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4543669929.765864</v>
+        <v>4226995175.008035</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1022832170432422</v>
+        <v>0.09536198440474057</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03985993415740774</v>
+        <v>0.03600016683901731</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>226</v>
+      </c>
+      <c r="J93" t="n">
+        <v>475</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2386448323.179635</v>
+        <v>1783329467.725839</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1311179362942793</v>
+        <v>0.1224824321046787</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03115716383335961</v>
+        <v>0.03432250501670631</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2921044402.434777</v>
+        <v>2013897789.621977</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1280674258215741</v>
+        <v>0.1285090842248788</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04137243766354422</v>
+        <v>0.0355190679221765</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2251211386.328485</v>
+        <v>1626411082.780864</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1015076337896792</v>
+        <v>0.1373396503562741</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0357629534947061</v>
+        <v>0.03621701080878818</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4769152351.074677</v>
+        <v>5071304693.820536</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1120804271879442</v>
+        <v>0.1286605596710388</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01798080521121829</v>
+        <v>0.02565304542774861</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>247</v>
+      </c>
+      <c r="J97" t="n">
+        <v>475</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2471358092.851455</v>
+        <v>3239102933.387358</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08571745045751136</v>
+        <v>0.08566370357656586</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02950688289511136</v>
+        <v>0.02361828809723008</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>120</v>
+      </c>
+      <c r="J98" t="n">
+        <v>475</v>
+      </c>
+      <c r="K98" t="n">
+        <v>33.60321629090055</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2696901556.558417</v>
+        <v>3113384016.065688</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1455417940051937</v>
+        <v>0.0982466811462261</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02893005648924483</v>
+        <v>0.02820592618440939</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4122506577.094458</v>
+        <v>3673373619.859561</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1396827651627587</v>
+        <v>0.1305266929572221</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02323085302397284</v>
+        <v>0.01821967104171012</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>222</v>
+      </c>
+      <c r="J100" t="n">
+        <v>473</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3298887191.226677</v>
+        <v>3309265435.502815</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2135594896524823</v>
+        <v>0.1498747143048392</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05478184229548282</v>
+        <v>0.0501348500425432</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
